--- a/simulacion_TSLA.xlsx
+++ b/simulacion_TSLA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>295.9299926757812</v>
+      </c>
+      <c r="C2" t="n">
         <v>295.4527893066406</v>
       </c>
-      <c r="C2" t="n">
-        <v>472.1795398031359</v>
-      </c>
       <c r="D2" t="n">
-        <v>448.5343292237362</v>
+        <v>302.8195757359014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>294.8500061035156</v>
+      </c>
+      <c r="C3" t="n">
         <v>295.9299926757812</v>
       </c>
-      <c r="C3" t="n">
-        <v>294.6675905234722</v>
-      </c>
       <c r="D3" t="n">
-        <v>302.9416009864913</v>
+        <v>299.4935138371325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>294.510009765625</v>
+      </c>
+      <c r="C4" t="n">
         <v>294.8500061035156</v>
       </c>
-      <c r="C4" t="n">
-        <v>294.9018228417832</v>
-      </c>
       <c r="D4" t="n">
-        <v>300.5505443109242</v>
+        <v>291.1728645905301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>296.5750122070312</v>
+      </c>
+      <c r="C5" t="n">
         <v>294.510009765625</v>
       </c>
-      <c r="C5" t="n">
-        <v>293.8570538735152</v>
-      </c>
       <c r="D5" t="n">
-        <v>303.8098673715679</v>
+        <v>295.4814541790589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>296.9400024414062</v>
+      </c>
+      <c r="C6" t="n">
         <v>296.5750122070312</v>
       </c>
-      <c r="C6" t="n">
-        <v>297.9382498767026</v>
-      </c>
       <c r="D6" t="n">
-        <v>306.4766307919094</v>
+        <v>295.2266819911682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>295.8200073242188</v>
+      </c>
+      <c r="C7" t="n">
         <v>296.9400024414062</v>
       </c>
-      <c r="C7" t="n">
-        <v>300.884414864577</v>
-      </c>
       <c r="D7" t="n">
-        <v>302.23731116558</v>
+        <v>300.3133656401666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>304.3500061035156</v>
+      </c>
+      <c r="C8" t="n">
         <v>295.8200073242188</v>
       </c>
-      <c r="C8" t="n">
-        <v>299.2658275528218</v>
-      </c>
       <c r="D8" t="n">
-        <v>294.2255828402798</v>
+        <v>290.4140486996533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>304.6860046386719</v>
+      </c>
+      <c r="C9" t="n">
         <v>304.3500061035156</v>
       </c>
-      <c r="C9" t="n">
-        <v>301.4218588938364</v>
-      </c>
       <c r="D9" t="n">
-        <v>294.6363052474019</v>
+        <v>309.5668667399527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>304.0199890136719</v>
+      </c>
+      <c r="C10" t="n">
         <v>304.6860046386719</v>
       </c>
-      <c r="C10" t="n">
-        <v>298.0397916619621</v>
-      </c>
       <c r="D10" t="n">
-        <v>308.4611061731397</v>
+        <v>311.3697037816527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>301.8865966796875</v>
+      </c>
+      <c r="C11" t="n">
         <v>304.0199890136719</v>
       </c>
-      <c r="C11" t="n">
-        <v>305.3671265650021</v>
-      </c>
       <c r="D11" t="n">
-        <v>310.3632078985005</v>
+        <v>307.1933687570481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>306.5299987792969</v>
+      </c>
+      <c r="C12" t="n">
         <v>301.8865966796875</v>
       </c>
-      <c r="C12" t="n">
-        <v>309.2384021109731</v>
-      </c>
       <c r="D12" t="n">
-        <v>304.2424979385754</v>
+        <v>310.1542429394568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>309.239990234375</v>
+      </c>
+      <c r="C13" t="n">
         <v>306.5299987792969</v>
       </c>
-      <c r="C13" t="n">
-        <v>298.7382935266529</v>
-      </c>
       <c r="D13" t="n">
-        <v>289.5418496736411</v>
+        <v>304.6895601055028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>309.9349975585938</v>
+      </c>
+      <c r="C14" t="n">
         <v>309.239990234375</v>
       </c>
-      <c r="C14" t="n">
-        <v>309.9613550039867</v>
-      </c>
       <c r="D14" t="n">
-        <v>316.5856969919221</v>
+        <v>309.988042889349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>310.9791870117188</v>
+      </c>
+      <c r="C15" t="n">
         <v>309.9349975585938</v>
       </c>
-      <c r="C15" t="n">
-        <v>312.9181894970333</v>
-      </c>
       <c r="D15" t="n">
-        <v>298.6118308073411</v>
+        <v>312.1934367568995</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>307.7103881835938</v>
+      </c>
+      <c r="C16" t="n">
         <v>310.9791870117188</v>
       </c>
-      <c r="C16" t="n">
-        <v>308.9456062858119</v>
-      </c>
       <c r="D16" t="n">
-        <v>312.3643589438148</v>
+        <v>313.5153379327371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>309.85009765625</v>
+      </c>
+      <c r="C17" t="n">
         <v>307.7103881835938</v>
       </c>
-      <c r="C17" t="n">
-        <v>315.7499421956023</v>
-      </c>
       <c r="D17" t="n">
-        <v>317.0655113057144</v>
+        <v>301.1050851850671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>310.8599853515625</v>
+      </c>
+      <c r="C18" t="n">
         <v>309.85009765625</v>
       </c>
-      <c r="C18" t="n">
-        <v>308.6383434307277</v>
-      </c>
       <c r="D18" t="n">
-        <v>317.2132231145431</v>
+        <v>315.4843275170597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>311.9599914550781</v>
+      </c>
+      <c r="C19" t="n">
         <v>310.8599853515625</v>
       </c>
-      <c r="C19" t="n">
-        <v>306.0072497982379</v>
-      </c>
       <c r="D19" t="n">
-        <v>306.7103568417016</v>
+        <v>308.5415455495137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>312.6799926757812</v>
+      </c>
+      <c r="C20" t="n">
         <v>311.9599914550781</v>
       </c>
-      <c r="C20" t="n">
-        <v>310.581054121039</v>
-      </c>
       <c r="D20" t="n">
-        <v>310.8290724172012</v>
+        <v>303.9027094718509</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C21" t="n">
         <v>312.6799926757812</v>
       </c>
-      <c r="C21" t="n">
-        <v>314.790974517219</v>
-      </c>
       <c r="D21" t="n">
-        <v>305.4056680542366</v>
+        <v>303.3831274361697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>314.2496948242188</v>
+      </c>
+      <c r="C22" t="n">
         <v>313.5</v>
       </c>
-      <c r="C22" t="n">
-        <v>312.7057583170089</v>
-      </c>
       <c r="D22" t="n">
-        <v>307.3279039080835</v>
+        <v>315.1674861806574</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>314.3800048828125</v>
+      </c>
+      <c r="C23" t="n">
         <v>314.2496948242188</v>
       </c>
-      <c r="C23" t="n">
-        <v>312.3708169842648</v>
-      </c>
       <c r="D23" t="n">
-        <v>308.2983611535634</v>
+        <v>316.1457922511709</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>314.9400024414062</v>
+      </c>
+      <c r="C24" t="n">
         <v>314.3800048828125</v>
       </c>
-      <c r="C24" t="n">
-        <v>313.3827411976576</v>
-      </c>
       <c r="D24" t="n">
-        <v>311.9231680844059</v>
+        <v>318.2658531077991</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>315.3375854492188</v>
+      </c>
+      <c r="C25" t="n">
         <v>314.9400024414062</v>
       </c>
-      <c r="C25" t="n">
-        <v>319.6594450769588</v>
-      </c>
       <c r="D25" t="n">
-        <v>317.140292063522</v>
+        <v>305.1150958546515</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>315.0239868164062</v>
+      </c>
+      <c r="C26" t="n">
         <v>315.3375854492188</v>
       </c>
-      <c r="C26" t="n">
-        <v>321.256571759037</v>
-      </c>
       <c r="D26" t="n">
-        <v>315.4140375993441</v>
+        <v>317.7872378397586</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>316.3251953125</v>
+      </c>
+      <c r="C27" t="n">
         <v>315.0239868164062</v>
       </c>
-      <c r="C27" t="n">
-        <v>314.5100926634726</v>
-      </c>
       <c r="D27" t="n">
-        <v>307.1754504594334</v>
+        <v>315.648434586688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>316.9100036621094</v>
+      </c>
+      <c r="C28" t="n">
         <v>316.3251953125</v>
       </c>
-      <c r="C28" t="n">
-        <v>320.727169406595</v>
-      </c>
       <c r="D28" t="n">
-        <v>310.8819199153719</v>
+        <v>315.3607099662644</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>317.6600036621094</v>
+      </c>
+      <c r="C29" t="n">
         <v>316.9100036621094</v>
       </c>
-      <c r="C29" t="n">
-        <v>318.3520588097803</v>
-      </c>
       <c r="D29" t="n">
-        <v>312.885449956113</v>
+        <v>315.5074602034069</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>314.0704956054688</v>
+      </c>
+      <c r="C30" t="n">
         <v>317.6600036621094</v>
       </c>
-      <c r="C30" t="n">
-        <v>309.6866992224915</v>
-      </c>
       <c r="D30" t="n">
-        <v>311.9851637999429</v>
+        <v>323.4164077382136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>314.3200073242188</v>
+      </c>
+      <c r="C31" t="n">
         <v>314.0704956054688</v>
       </c>
-      <c r="C31" t="n">
-        <v>312.5961895249613</v>
-      </c>
       <c r="D31" t="n">
-        <v>328.4829272983443</v>
+        <v>311.642205766703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>314.0799865722656</v>
+      </c>
+      <c r="C32" t="n">
         <v>314.3200073242188</v>
       </c>
-      <c r="C32" t="n">
-        <v>309.2877007456687</v>
-      </c>
       <c r="D32" t="n">
-        <v>329.7232940080098</v>
+        <v>318.8235148300921</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>314.6531982421875</v>
+      </c>
+      <c r="C33" t="n">
         <v>314.0799865722656</v>
       </c>
-      <c r="C33" t="n">
-        <v>316.1056223291531</v>
-      </c>
       <c r="D33" t="n">
-        <v>318.9156187199007</v>
+        <v>307.3773201028431</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>311.4549865722656</v>
+      </c>
+      <c r="C34" t="n">
         <v>314.6531982421875</v>
       </c>
-      <c r="C34" t="n">
-        <v>310.8170305855522</v>
-      </c>
       <c r="D34" t="n">
-        <v>329.5577617936336</v>
+        <v>317.3028772063425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>310.6600036621094</v>
+      </c>
+      <c r="C35" t="n">
         <v>311.4549865722656</v>
       </c>
-      <c r="C35" t="n">
-        <v>307.6393279162861</v>
-      </c>
       <c r="D35" t="n">
-        <v>320.9202508814874</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>310.6600036621094</v>
-      </c>
-      <c r="C36" t="n">
-        <v>315.4301880167135</v>
-      </c>
-      <c r="D36" t="n">
-        <v>308.0457665404376</v>
+        <v>315.145003031463</v>
       </c>
     </row>
   </sheetData>
